--- a/report/отчёт.xlsx
+++ b/report/отчёт.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5611,6 +5611,76 @@
         <v>0</v>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>иван акулиничев</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>899623123</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Семья Аштаев А.А. ЦТСА - СТП - SMM</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09.06.2001</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Работник</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>активен</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Иван Иванов иванов</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>899623123</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Семья Аштаев А.А. ЦТСА - СТП - SMM</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>09.06.2001</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Родственник</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>активен</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
